--- a/POMFramework_Sarathi/DataFiles/NewLL.xlsx
+++ b/POMFramework_Sarathi/DataFiles/NewLL.xlsx
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8225" uniqueCount="1475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8206" uniqueCount="1474">
   <si>
     <t>Iteration</t>
   </si>
@@ -4480,15 +4480,6 @@
     <t>Giriraaj</t>
   </si>
   <si>
-    <t>Achyut</t>
-  </si>
-  <si>
-    <t>343321</t>
-  </si>
-  <si>
-    <t>UP901/0001001/2021</t>
-  </si>
-  <si>
     <t>189</t>
   </si>
   <si>
@@ -4504,20 +4495,25 @@
     <t>UP90120101000650</t>
   </si>
   <si>
-    <t>Archan</t>
-  </si>
-  <si>
     <t>344421</t>
   </si>
   <si>
     <t>UP901/0001003/2021</t>
+  </si>
+  <si>
+    <t>Kailash</t>
+  </si>
+  <si>
+    <t>Gajaadhar</t>
+  </si>
+  <si>
+    <t>Desai</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -5215,58 +5211,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AT426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D286" workbookViewId="0">
-      <selection activeCell="O301" sqref="O301"/>
+    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="16.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="8.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="8.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="23.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="5.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="9.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="13.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="68" width="11.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="68" width="9.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="68" width="26.28515625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="68" width="10.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="7.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="10.42578125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="9.42578125" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="2" width="13.85546875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.28515625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="19.42578125" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="2" width="10.42578125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="27.0" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="43.5703125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="26.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="27.0" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="43.5703125" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="26.28515625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="10.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="13.85546875" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="13.5703125" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="13.85546875" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="22.0" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="19.42578125" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="17.28515625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="18.7109375" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="24.0" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="2" width="32.42578125" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" style="2" width="20.85546875" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" style="2" width="19.7109375" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" style="2" width="27.0" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" style="2" width="18.7109375" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="16.42578125" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="12.5703125" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="43.5703125" collapsed="true"/>
-    <col min="46" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="16.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="5.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.28515625" style="68" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.42578125" style="68" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="26.28515625" style="68" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.28515625" style="68" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="7.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="9.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="13.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="11.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="19.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="10.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="27" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="43.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="26.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="27" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="43.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="26.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="10.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="13.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="19.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="13.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="22" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="19.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="17.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="18.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="24" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="32.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="20.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="19.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="15.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="27" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="18.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="16.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="12.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="43.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" s="61" customFormat="1" ht="21.75" customHeight="1">
@@ -8940,8 +8936,8 @@
       <c r="A38" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="73" t="s">
-        <v>881</v>
+      <c r="B38" s="74" t="s">
+        <v>1</v>
       </c>
       <c r="C38" s="71" t="s">
         <v>890</v>
@@ -8977,21 +8973,13 @@
       <c r="M38" s="81" t="s">
         <v>875</v>
       </c>
-      <c r="N38" s="53" t="s">
-        <v>1464</v>
-      </c>
-      <c r="O38" s="53" t="s">
-        <v>1218</v>
-      </c>
+      <c r="N38" s="53"/>
+      <c r="O38" s="53"/>
       <c r="P38" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="Q38" s="53" t="s">
-        <v>1307</v>
-      </c>
-      <c r="R38" s="53" t="s">
-        <v>1341</v>
-      </c>
+      <c r="Q38" s="53"/>
+      <c r="R38" s="53"/>
       <c r="S38" s="54" t="s">
         <v>874</v>
       </c>
@@ -9028,15 +9016,9 @@
       <c r="AD38" s="73" t="s">
         <v>878</v>
       </c>
-      <c r="AE38" s="79" t="s">
-        <v>1465</v>
-      </c>
-      <c r="AF38" s="79" t="s">
-        <v>951</v>
-      </c>
-      <c r="AG38" s="56" t="s">
-        <v>1466</v>
-      </c>
+      <c r="AE38" s="79"/>
+      <c r="AF38" s="79"/>
+      <c r="AG38" s="56"/>
       <c r="AH38" s="56" t="s">
         <v>875</v>
       </c>
@@ -13927,8 +13909,8 @@
       <c r="A79" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B79" s="74" t="s">
-        <v>1</v>
+      <c r="B79" s="73" t="s">
+        <v>881</v>
       </c>
       <c r="C79" s="71" t="s">
         <v>890</v>
@@ -13953,22 +13935,22 @@
         <v>1096</v>
       </c>
       <c r="J79" s="58" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="K79" s="83" t="s">
+        <v>1468</v>
+      </c>
+      <c r="L79" s="81" t="s">
+        <v>875</v>
+      </c>
+      <c r="M79" s="81" t="s">
+        <v>875</v>
+      </c>
+      <c r="N79" s="53" t="s">
         <v>1471</v>
       </c>
-      <c r="L79" s="81" t="s">
-        <v>875</v>
-      </c>
-      <c r="M79" s="81" t="s">
-        <v>875</v>
-      </c>
-      <c r="N79" s="53" t="s">
-        <v>1430</v>
-      </c>
       <c r="O79" s="53" t="s">
-        <v>1353</v>
+        <v>1359</v>
       </c>
       <c r="P79" s="53" t="s">
         <v>52</v>
@@ -13977,7 +13959,7 @@
         <v>1472</v>
       </c>
       <c r="R79" s="53" t="s">
-        <v>1163</v>
+        <v>1473</v>
       </c>
       <c r="S79" s="54" t="s">
         <v>874</v>
@@ -14016,7 +13998,7 @@
         <v>878</v>
       </c>
       <c r="AE79" s="79" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="AF79" s="56" t="s">
         <v>951</v>
@@ -27105,10 +27087,10 @@
         <v>875</v>
       </c>
       <c r="I253" s="65" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="J253" s="65" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="K253" s="53" t="s">
         <v>1257</v>
@@ -27120,7 +27102,7 @@
         <v>1023</v>
       </c>
       <c r="N253" s="53" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="O253" s="53" t="s">
         <v>1172</v>
@@ -27162,13 +27144,13 @@
         <v>878</v>
       </c>
       <c r="AB253" s="58" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
       <c r="AC253" s="58" t="s">
         <v>875</v>
       </c>
       <c r="AD253" s="58" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="AE253" s="57" t="s">
         <v>875</v>
@@ -30982,7 +30964,7 @@
         <v>810</v>
       </c>
       <c r="H301" s="82" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="I301" s="66" t="s">
         <v>951</v>
@@ -31003,7 +30985,7 @@
         <v>1018</v>
       </c>
       <c r="O301" s="57" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="P301" s="57" t="s">
         <v>875</v>
@@ -31782,15 +31764,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="58.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="26.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="58.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -32406,8 +32388,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="7" width="9.140625" collapsed="true"/>
-    <col min="9" max="10" style="7" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="7" collapsed="1"/>
+    <col min="9" max="10" width="9.140625" style="7" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="7" customFormat="1">
